--- a/SuppXLS/Scen_UC_COALBND.xlsx
+++ b/SuppXLS/Scen_UC_COALBND.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{5E791F03-6BD9-49FD-9191-DE8F206D6415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C53D6CF4-C152-489E-B2DA-7EE7EE5D3C00}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015F2BE-0620-4388-A9D8-BC99879F797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UC_CO2" sheetId="1" r:id="rId1"/>
+    <sheet name="UC_COAL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -104,26 +104,29 @@
     <t>ETH</t>
   </si>
   <si>
-    <t>Manufacturing Oil  Bound Constraint</t>
-  </si>
-  <si>
     <t>Table Name: Manufacturing sector oil use</t>
   </si>
   <si>
     <t>Active Unit: GWh</t>
   </si>
   <si>
-    <t>CEMENTHEAT</t>
-  </si>
-  <si>
-    <t>AU_CEMENTHEAT_BND</t>
+    <t>Manufacturing coal bound Constraint</t>
+  </si>
+  <si>
+    <t>AU_Coal_BND</t>
+  </si>
+  <si>
+    <t>MINCOA,IMPCOA</t>
+  </si>
+  <si>
+    <t>COAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +172,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -227,7 +237,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -242,7 +252,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +749,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,10 +836,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
       </c>
       <c r="I6">
         <v>2030</v>
@@ -841,13 +852,13 @@
       </c>
       <c r="L6" s="8">
         <f>G24*(1-R6)</f>
-        <v>54684.459000000003</v>
+        <v>19228.702163161739</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R6" s="11">
         <v>0.1</v>
@@ -855,7 +866,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>2050</v>
@@ -895,12 +906,12 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
@@ -949,17 +960,17 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="8">
-        <v>60760.51</v>
+      <c r="G24" s="12">
+        <v>21365.224625735264</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="12">
+      <c r="K24" s="13">
         <v>10710972.130000001</v>
       </c>
       <c r="L24" s="8"/>
